--- a/chinese-cosmetics-imports-20161128/chinese-cosmetics-imports-20161128.xlsx
+++ b/chinese-cosmetics-imports-20161128/chinese-cosmetics-imports-20161128.xlsx
@@ -15,309 +15,312 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
-    <t>date</t>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>2001</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>17.8</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
     <t>headline</t>
   </si>
   <si>
-    <t>South Korea</t>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>17.1</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>2003</t>
   </si>
   <si>
     <t>Chinese Cosmetics Imports Rising</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>2001</t>
+    <t>27.6</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>31.9</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>50.5</t>
+  </si>
+  <si>
+    <t>67.5</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>46.9</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>Top5</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>54.1</t>
+  </si>
+  <si>
+    <t>94.6</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>68.4</t>
+  </si>
+  <si>
+    <t>135.4</t>
+  </si>
+  <si>
+    <t>12.7</t>
+  </si>
+  <si>
+    <t>68.8</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>87.7</t>
+  </si>
+  <si>
+    <t>226.5</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>142.4</t>
   </si>
   <si>
     <t>subhed</t>
   </si>
   <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t xml:space="preserve">Imports of specifc beauty, make-up and skin-care preparation products* in China, by top exporting countries. </t>
   </si>
   <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>17.8</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>9.4</t>
+    <t>35.9</t>
+  </si>
+  <si>
+    <t>82.6</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>219.4</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>13.9</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>178.2</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>47.3</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>94.3</t>
+  </si>
+  <si>
+    <t>310.9</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>56.6</t>
+  </si>
+  <si>
+    <t>105.5</t>
+  </si>
+  <si>
+    <t>446.2</t>
+  </si>
+  <si>
+    <t>28.7</t>
+  </si>
+  <si>
+    <t>298.8</t>
   </si>
   <si>
     <t>footnote</t>
   </si>
   <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t xml:space="preserve">* Figures represent cosmetics commodities listed in the database under category "3304" (and its subcategories). Perfumes excluded. Read the full descriptions &lt;a href="https://comtrade.un.org/db/mr/rfCommoditiesList.aspx?px=H4&amp;cc=3304"&gt;here&lt;/a&gt;. </t>
   </si>
   <si>
+    <t>89.5</t>
+  </si>
+  <si>
+    <t>107.0</t>
+  </si>
+  <si>
+    <t>445.4</t>
+  </si>
+  <si>
+    <t>45.3</t>
+  </si>
+  <si>
+    <t>286.3</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>134.9</t>
+  </si>
+  <si>
+    <t>152.8</t>
+  </si>
+  <si>
     <t>source</t>
   </si>
   <si>
+    <t>495.6</t>
+  </si>
+  <si>
     <t>United Nations &lt;a href="https://comtrade.un.org/data/"&gt;Comtrade Database&lt;/a&gt;</t>
   </si>
   <si>
+    <t>57.0</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
+    <t>256.0</t>
+  </si>
+  <si>
     <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>17.1</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>27.6</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>31.9</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>50.5</t>
-  </si>
-  <si>
-    <t>67.5</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>46.9</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>54.1</t>
-  </si>
-  <si>
-    <t>94.6</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>22.6</t>
-  </si>
-  <si>
-    <t>68.4</t>
-  </si>
-  <si>
-    <t>135.4</t>
-  </si>
-  <si>
-    <t>12.7</t>
-  </si>
-  <si>
-    <t>68.8</t>
-  </si>
-  <si>
-    <t>Top5</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>87.7</t>
-  </si>
-  <si>
-    <t>226.5</t>
-  </si>
-  <si>
-    <t>14.1</t>
-  </si>
-  <si>
-    <t>142.4</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>35.9</t>
-  </si>
-  <si>
-    <t>82.6</t>
-  </si>
-  <si>
-    <t>219.4</t>
-  </si>
-  <si>
-    <t>13.9</t>
-  </si>
-  <si>
-    <t>178.2</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>47.3</t>
-  </si>
-  <si>
-    <t>94.3</t>
-  </si>
-  <si>
-    <t>310.9</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>56.6</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>105.5</t>
-  </si>
-  <si>
-    <t>446.2</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>28.7</t>
-  </si>
-  <si>
-    <t>298.8</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>89.5</t>
-  </si>
-  <si>
-    <t>107.0</t>
-  </si>
-  <si>
-    <t>445.4</t>
-  </si>
-  <si>
-    <t>45.3</t>
-  </si>
-  <si>
-    <t>286.3</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>134.9</t>
-  </si>
-  <si>
-    <t>152.8</t>
-  </si>
-  <si>
-    <t>495.6</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>256.0</t>
-  </si>
-  <si>
     <t>2014</t>
   </si>
   <si>
+    <t>1993</t>
+  </si>
+  <si>
     <t>203.5</t>
   </si>
   <si>
@@ -327,6 +330,9 @@
     <t>626.7</t>
   </si>
   <si>
+    <t>1994</t>
+  </si>
+  <si>
     <t>69.8</t>
   </si>
   <si>
@@ -342,6 +348,9 @@
     <t>343.6</t>
   </si>
   <si>
+    <t>1995</t>
+  </si>
+  <si>
     <t>912.4</t>
   </si>
   <si>
@@ -349,15 +358,6 @@
   </si>
   <si>
     <t>488.3</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
   </si>
   <si>
     <t>1996</t>
@@ -386,19 +386,19 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="14.0"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
       <sz val="14.0"/>
     </font>
     <font>
-      <b/>
+      <sz val="14.0"/>
     </font>
     <font/>
   </fonts>
@@ -423,15 +423,8 @@
     </fill>
   </fills>
   <borders count="4">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF76933C"/>
       </top>
@@ -440,16 +433,11 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FFEBF1DE"/>
       </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FFEBF1DE"/>
       </top>
@@ -463,52 +451,52 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -518,19 +506,22 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -541,476 +532,476 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="A3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="A4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
+      <c r="A5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="A6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1019,6 +1010,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1028,343 +1022,343 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="F11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+      <c r="C12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="E12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="B13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="10"/>
+      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="10"/>
+      <c r="D16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" s="16"/>
@@ -4298,6 +4292,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4307,682 +4304,682 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="14">
+      <c r="A2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="13">
         <v>8204.0</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>1402324.0</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13">
         <v>1745799.0</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>4410309.0</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <v>269120.0</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>3449.0</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>62702.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="7">
         <v>49601.0</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>925542.0</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
         <v>3496222.0</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>9349331.0</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="7">
         <v>1234277.0</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="7">
         <v>389797.0</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="7">
         <v>897005.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="7">
         <v>116425.0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>1476984.0</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
         <v>7161230.0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>1.2957117E7</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <v>3992252.0</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="7">
         <v>177844.0</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="7">
         <v>1397725.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="7">
         <v>209586.0</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>3097913.0</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
         <v>6539851.0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>1.4072428E7</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <v>1236545.0</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <v>824955.0</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <v>1170852.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>369033.0</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>4510955.0</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
         <v>9740502.0</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>2.0029681E7</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="7">
         <v>837288.0</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="7">
         <v>2125586.0</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="7">
         <v>1897640.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>614222.0</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>3677862.0</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
         <v>1.0141922E7</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>1.8011216E7</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="7">
         <v>2517800.0</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="7">
         <v>1279768.0</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="7">
         <v>2052270.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>1198406.0</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>7479067.0</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
         <v>1.619572E7</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>2.2625732E7</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="7">
         <v>3361046.0</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="7">
         <v>468165.0</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="7">
         <v>3689036.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>573149.0</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>6496934.0</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
         <v>1.5905783E7</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>2.4910986E7</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <v>4251213.0</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="7">
         <v>768956.0</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="7">
         <v>3815531.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>1007710.0</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>1.3216053E7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
         <v>3.3179903E7</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>4.4561216E7</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="7">
         <v>9589534.0</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="7">
         <v>601923.0</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="7">
         <v>8764683.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="10">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7">
         <v>1784474.0</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>1.7822361E7</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
         <v>3.8965629E7</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>4.8198338E7</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="7">
         <v>8807823.0</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="7">
         <v>1193800.0</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="7">
         <v>9357171.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="10">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7">
         <v>1823033.0</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>1.7086862E7</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
         <v>3.6608828E7</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>4.3917443E7</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <v>1.2332561E7</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="7">
         <v>653174.0</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="7">
         <v>4713198.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="10">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7">
         <v>1798046.0</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>2.7554277E7</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
         <v>6.7675471E7</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>7.8750205E7</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="7">
         <v>2.4017513E7</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="7">
         <v>1004175.0</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="7">
         <v>1.330146E7</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="10">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7">
         <v>3647231.0</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>2.703802E7</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
         <v>1.1583924E8</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <v>1.37874987E8</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="7">
         <v>4.9049713E7</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="7">
         <v>4229381.0</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="7">
         <v>3.1874895E7</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="10">
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7">
         <v>1.2002335E7</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>5.0453189E7</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
         <v>1.81683941E8</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <v>2.07178437E8</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="7">
         <v>6.7504301E7</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="7">
         <v>4841200.0</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="7">
         <v>4.6882916E7</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1.6508518E7</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5.414382E7</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
+        <v>2.28549737E8</v>
+      </c>
+      <c r="G16" s="14">
+        <v>2.64074453E8</v>
+      </c>
+      <c r="I16" s="7">
+        <v>9.4577247E7</v>
+      </c>
+      <c r="J16" s="7">
+        <v>9339010.0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>5.3981142E7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="10">
-        <v>1.6508518E7</v>
-      </c>
-      <c r="C16" s="10">
-        <v>5.414382E7</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10">
-        <v>2.28549737E8</v>
-      </c>
-      <c r="G16" s="15">
-        <v>2.64074453E8</v>
-      </c>
-      <c r="I16" s="10">
-        <v>9.4577247E7</v>
-      </c>
-      <c r="J16" s="10">
-        <v>9339010.0</v>
-      </c>
-      <c r="K16" s="10">
-        <v>5.3981142E7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="B17" s="7">
+        <v>2.2609736E7</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6.8445309E7</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
+        <v>3.07982098E8</v>
+      </c>
+      <c r="G17" s="14">
+        <v>3.55154128E8</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1.35361948E8</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1.2744087E7</v>
+      </c>
+      <c r="K17" s="7">
+        <v>6.8821018E7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="10">
-        <v>2.2609736E7</v>
-      </c>
-      <c r="C17" s="10">
-        <v>6.8445309E7</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10">
-        <v>3.07982098E8</v>
-      </c>
-      <c r="G17" s="15">
-        <v>3.55154128E8</v>
-      </c>
-      <c r="I17" s="10">
-        <v>1.35361948E8</v>
-      </c>
-      <c r="J17" s="10">
-        <v>1.2744087E7</v>
-      </c>
-      <c r="K17" s="10">
-        <v>6.8821018E7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="7">
+        <v>2.9975906E7</v>
+      </c>
+      <c r="C18" s="7">
+        <v>8.768872E7</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <v>5.00727802E8</v>
+      </c>
+      <c r="G18" s="14">
+        <v>5.6650184E8</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2.26494123E8</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1.4148432E7</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1.42420621E8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="10">
-        <v>2.9975906E7</v>
-      </c>
-      <c r="C18" s="10">
-        <v>8.768872E7</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10">
-        <v>5.00727802E8</v>
-      </c>
-      <c r="G18" s="15">
-        <v>5.6650184E8</v>
-      </c>
-      <c r="I18" s="10">
-        <v>2.26494123E8</v>
-      </c>
-      <c r="J18" s="10">
-        <v>1.4148432E7</v>
-      </c>
-      <c r="K18" s="10">
-        <v>1.42420621E8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>3.5892945E7</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>8.2563747E7</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
         <v>5.29881425E8</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>6.0350542E8</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="7">
         <v>2.19390975E8</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="7">
         <v>1.3866163E7</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="7">
         <v>1.78167595E8</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="10">
+      <c r="A20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="7">
         <v>4.7268467E7</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>9.4284893E7</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
         <v>7.00402022E8</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <v>8.06460064E8</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="7">
         <v>3.10880955E8</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="7">
         <v>2.1474351E7</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="7">
         <v>2.26493356E8</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="10">
+      <c r="A21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="7">
         <v>5.6573451E7</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>1.05517816E8</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
         <v>9.35892698E8</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>1.071837865E9</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="7">
         <v>4.46241247E8</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="7">
         <v>2.8711659E7</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="7">
         <v>2.98848525E8</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="10">
+      <c r="A22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="7">
         <v>8.9483768E7</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>1.0695052E8</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
         <v>9.7346017E8</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <v>1.148764527E9</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="7">
         <v>4.45440266E8</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="7">
         <v>4.5270266E7</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="7">
         <v>2.8631535E8</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="10">
+      <c r="A23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="7">
         <v>1.34903978E8</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>1.52841676E8</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
         <v>1.096318391E9</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>1.296903041E9</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="7">
         <v>4.95584165E8</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="7">
         <v>5.7022156E7</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="7">
         <v>2.55966416E8</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>2.03464516E8</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>1.9369307E8</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
         <v>1.396685251E9</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <v>1.670116043E9</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="7">
         <v>6.26698328E8</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="7">
         <v>6.9799266E7</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="7">
         <v>3.03030071E8</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="10">
+      <c r="A25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="7">
         <v>7.04581219E8</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>3.43590292E8</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
         <v>2.615199349E9</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <v>3.067662395E9</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="7">
         <v>9.12435945E8</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="7">
         <v>1.66339525E8</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="7">
         <v>4.88252368E8</v>
       </c>
     </row>
